--- a/biology/Zoologie/Deidamia_inscriptum/Deidamia_inscriptum.xlsx
+++ b/biology/Zoologie/Deidamia_inscriptum/Deidamia_inscriptum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deidamia inscriptum est une espèce de lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae et de la tribu des Macroglossini. 
 Elle est l'unique représentante du genre monotypique Deidamia .
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue en Floride, au Mississippi, dans le Michigan, le Wisconsin, l'Ontario, le Québec et la Caroline du Sud.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure des ailes varie de 45 à 70 mm.
 			Face dorsale du mâle (coll.MHNT)
@@ -579,9 +595,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chenilles se nourrissent sur les genres Ampelopsis, Parthenocissus, et Vitis [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles se nourrissent sur les genres Ampelopsis, Parthenocissus, et Vitis .
 </t>
         </is>
       </c>
@@ -610,10 +628,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Deidamia inscriptum a été décrite par l’entomologiste britannique Thaddeus William Harris, en 1839[2], sous le nom initial de Pterogon inscriptum. 
-Son genre actuel Deidamia , dont elle est l'espèce type et l'unique espèce, a été décrit par l'entomologiste américain James Brackenridge Clemens,en 1859[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Deidamia inscriptum a été décrite par l’entomologiste britannique Thaddeus William Harris, en 1839, sous le nom initial de Pterogon inscriptum. 
+Son genre actuel Deidamia , dont elle est l'espèce type et l'unique espèce, a été décrit par l'entomologiste américain James Brackenridge Clemens,en 1859.
 La localité type est l'Indiana.</t>
         </is>
       </c>
@@ -642,10 +662,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pour le genre
-Tricholon Boisduval, [1875] [4]
+Tricholon Boisduval,  
 Pour l'espèce
 Deidamia inscripta
 Pterogon inscriptum Harris, 1839</t>
